--- a/measures/2 master measures/text/evaluative_stimuli.xlsx
+++ b/measures/2 master measures/text/evaluative_stimuli.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tal moran\Documents\GitHub\unconscious-ec-RRR\measures\2 master measures\text\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A333C3-DBFE-4D06-A621-42D71099CECA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22600" windowHeight="13640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -114,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,28 +499,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -525,105 +531,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="2"/>
     </row>
